--- a/xlsx/无产阶级国际主义_intext.xlsx
+++ b/xlsx/无产阶级国际主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="521">
   <si>
     <t>无产阶级国际主义</t>
   </si>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>馬克思主義哲學</t>
+    <t>马克思主义哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9%E6%94%BF%E6%B2%BB%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>馬克思主義政治經濟學</t>
+    <t>马克思主义政治经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%A9%E4%BD%99%E4%BB%B7%E5%80%BC</t>
   </si>
   <si>
-    <t>剩余价值</t>
+    <t>剩馀价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A%E9%AC%A5%E7%88%AD</t>
   </si>
   <si>
-    <t>階級鬥爭</t>
+    <t>阶级斗争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7%E4%B8%93%E6%94%BF</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%9A%8E%E7%B4%9A%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>無階級社會</t>
+    <t>无阶级社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E9%A2%86%E5%AF%BC</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>共產主義國家</t>
+    <t>共产主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產黨</t>
+    <t>共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E5%85%9A%E5%88%97%E8%A1%A8</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E6%89%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>鐵托主義</t>
+    <t>铁托主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>赫魯曉夫主義</t>
+    <t>赫鲁晓夫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%89%B9%E7%BD%97%E4%B8%BB%E4%B9%89</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%93%A6%E6%8B%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>格瓦拉主義</t>
+    <t>格瓦拉主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%BF%97%E6%98%8E%E6%80%9D%E6%83%B3</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教共產主義</t>
+    <t>基督教共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -251,31 +251,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E8%80%85%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>共產主義者同盟</t>
+    <t>共产主义者同盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>第一國際</t>
+    <t>第一国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>第二國際</t>
+    <t>第二国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>第三國際</t>
+    <t>第三国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>第四國際</t>
+    <t>第四国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E5%85%9A%E5%92%8C%E5%B7%A5%E4%BA%BA%E5%85%9A%E5%9B%BD%E9%99%85%E4%BC%9A%E8%AE%AE</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%8E%8E%C2%B7%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>羅莎·盧森堡</t>
+    <t>罗莎·卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%9D%8E%E5%8D%9C%E5%85%8B%E5%86%85%E8%A5%BF</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7</t>
   </si>
   <si>
-    <t>列寧</t>
+    <t>列宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%B4%9B%E8%8C%A8%E5%9F%BA</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%98%AD%E8%A5%BF</t>
   </si>
   <si>
-    <t>葛蘭西</t>
+    <t>葛兰西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反資本主義</t>
+    <t>反资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反法西斯主義</t>
+    <t>反法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE</t>
@@ -407,37 +407,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原始共產主義</t>
+    <t>原始共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>科學共產主義</t>
+    <t>科学共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>科學社會主義</t>
+    <t>科学社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後共產主義</t>
+    <t>后共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反共主義</t>
+    <t>反共主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89%E5%8C%96</t>
@@ -455,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對共產主義的批評</t>
+    <t>对共产主义的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E5%85%B1%E7%94%A2%E9%BB%A8%E7%B5%B1%E6%B2%BB%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對共產黨統治的批評</t>
+    <t>对共产党统治的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Communism</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反帝國主義</t>
+    <t>反帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%9B%86%E4%B8%AD%E5%88%B6</t>
@@ -533,15 +533,9 @@
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E6%89%98%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>铁托主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%93%A6%E6%8B%89%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>格瓦拉主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%BB%B4%E8%90%A8%E9%87%8C%E5%A5%A5%E8%AF%BA%E7%BB%B4%E5%A5%87%C2%B7%E6%96%AF%E5%A4%A7%E6%9E%97</t>
   </si>
   <si>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%B1%B1%C2%B7%E8%B1%90%E5%A8%81%E6%BC%A2</t>
   </si>
   <si>
-    <t>凱山·豐威漢</t>
+    <t>凯山·丰威汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%92%82%E5%8E%84%C2%B7%E5%85%8B%E9%9B%B7%E5%BA%93</t>
@@ -713,9 +707,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%9B%BD%E9%99%85</t>
   </si>
   <si>
-    <t>第三国际</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%8B%8F%E7%BB%B4%E5%9F%83%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%AE%96%E6%B0%91%E5%9C%B0%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>葡萄牙殖民地戰爭</t>
+    <t>葡萄牙殖民地战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA%E6%9D%83%E5%8A%9B%E8%BF%90%E5%8A%A8</t>
@@ -827,19 +818,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%AB%96</t>
   </si>
   <si>
-    <t>資本論</t>
+    <t>资本论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E9%A9%AC%E5%85%8B%E6%80%9D</t>
@@ -929,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%84%E5%85%A5%E4%BE%B5%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
   </si>
   <si>
-    <t>華約入侵捷克斯洛伐克</t>
+    <t>华约入侵捷克斯洛伐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E7%BE%8E%E6%8F%B4%E8%B6%8A</t>
@@ -941,13 +932,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E8%B4%8A%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>坦贊鐵路</t>
+    <t>坦赞铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1971%E5%B9%B4%E5%8D%B0%E5%B7%B4%E6%88%98%E4%BA%89</t>
@@ -977,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E8%81%AF%E5%90%88%E8%81%B2%E6%98%8E</t>
   </si>
   <si>
-    <t>中日聯合聲明</t>
+    <t>中日联合声明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%9D%9C%E5%B8%83%E5%88%87%E5%85%8B</t>
   </si>
   <si>
-    <t>亞歷山大·杜布切克</t>
+    <t>亚历山大·杜布切克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%BF%AA%E6%96%AF%E7%93%A6%E5%A4%AB%C2%B7%E5%93%A5%E7%A9%86%E5%B0%94%E5%8D%A1</t>
@@ -1079,9 +1070,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E5%B1%B1%C2%B7%E4%B8%B0%E5%A8%81%E6%B1%89</t>
   </si>
   <si>
-    <t>凯山·丰威汉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%BD%97%E6%95%A6%C2%B7%E8%A5%BF%E5%93%88%E5%8A%AA%E5%85%8B</t>
   </si>
   <si>
@@ -1109,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%93%88%E6%89%98</t>
   </si>
   <si>
-    <t>蘇哈托</t>
+    <t>苏哈托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%A7%91%E9%98%BF%E9%83%BD%E6%8B%89%E6%9B%BC</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
   </si>
   <si>
-    <t>夏爾·戴高樂</t>
+    <t>夏尔·戴高乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E8%93%AC%E7%9A%AE%E6%9D%9C</t>
@@ -1229,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C</t>
   </si>
   <si>
-    <t>哈羅德·威爾遜</t>
+    <t>哈罗德·威尔逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E5%B8%8C%E6%80%9D</t>
@@ -1259,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E9%AB%98%E5%A4%AB%C2%B7%E6%83%A0%E7%89%B9%E8%98%AD</t>
   </si>
   <si>
-    <t>愛德華·高夫·惠特蘭</t>
+    <t>爱德华·高夫·惠特兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E5%B0%94%C2%B7%E7%89%B9%E9%B2%81%E5%A4%9A</t>
@@ -1271,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E8%97%A4%E6%A6%AE%E4%BD%9C</t>
   </si>
   <si>
-    <t>佐藤榮作</t>
+    <t>佐藤荣作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E4%B8%AD%E8%A7%92%E8%8D%A3</t>
@@ -1301,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E7%93%A6%E7%88%BE%C2%B7%E8%96%A9%E9%81%94%E7%89%B9</t>
   </si>
   <si>
-    <t>穆罕默德·安瓦爾·薩達特</t>
+    <t>穆罕默德·安瓦尔·萨达特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E7%A4%BC%E8%90%A8%C2%B7%E5%B7%B4%E5%88%97%E7%BB%B4</t>
@@ -1421,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E4%B8%B9</t>
   </si>
   <si>
-    <t>吳丹</t>
+    <t>吴丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E7%89%B9%C2%B7%E7%93%A6%E5%B0%94%E5%BE%B7%E6%B5%B7%E5%A7%86</t>
@@ -1439,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E6%9C%AC%E9%A1%AF%E6%B2%BB</t>
   </si>
   <si>
-    <t>宮本顯治</t>
+    <t>宫本显治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A8%9C%C2%B7%E8%B7%AF%E6%98%93%E4%B8%9D%C2%B7%E6%96%AF%E7%89%B9%E6%9C%97</t>
@@ -1457,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%B4%8D%E5%BE%B7%C2%B7%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9</t>
   </si>
   <si>
-    <t>伯納德·蒙哥馬利</t>
+    <t>伯纳德·蒙哥马利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B3%BD%E9%9A%86%E4%BA%8C</t>
@@ -1481,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%AC%E9%B5%AC%E9%A3%9B</t>
   </si>
   <si>
-    <t>姬鵬飛</t>
+    <t>姬鹏飞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E5%86%A0%E5%8D%8E</t>
@@ -1523,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>緬甸共產黨</t>
+    <t>缅甸共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E9%AB%98%E6%A3%89</t>
@@ -1541,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%B5%A4%E8%BB%8D</t>
   </si>
   <si>
-    <t>日本赤軍</t>
+    <t>日本赤军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%85%B1%E4%BA%A7%E5%85%9A_(%E5%85%89%E8%BE%89%E9%81%93%E8%B7%AF)</t>
@@ -1583,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>印度尼西亞共產黨</t>
+    <t>印度尼西亚共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%98%BF%E5%86%B3%E8%A3%82</t>
@@ -4483,7 +4471,7 @@
         <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4509,10 +4497,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4538,10 +4526,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4567,10 +4555,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4596,10 +4584,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4625,10 +4613,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4654,10 +4642,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4683,10 +4671,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4712,10 +4700,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4741,10 +4729,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4770,10 +4758,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4799,10 +4787,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4828,10 +4816,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4857,10 +4845,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4886,10 +4874,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4915,10 +4903,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4944,10 +4932,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4973,10 +4961,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5002,10 +4990,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5031,10 +5019,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5060,10 +5048,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5089,10 +5077,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5118,10 +5106,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5147,10 +5135,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5176,10 +5164,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5205,10 +5193,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5234,10 +5222,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5263,10 +5251,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5292,10 +5280,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5321,10 +5309,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5350,10 +5338,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5379,10 +5367,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5408,10 +5396,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5437,10 +5425,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5466,10 +5454,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5495,10 +5483,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5524,10 +5512,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5553,10 +5541,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5582,10 +5570,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5611,10 +5599,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5640,10 +5628,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5669,10 +5657,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5698,10 +5686,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5727,10 +5715,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5756,10 +5744,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5785,10 +5773,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5814,10 +5802,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5843,10 +5831,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5872,10 +5860,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5930,10 +5918,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5959,10 +5947,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5988,10 +5976,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6017,10 +6005,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6046,10 +6034,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -6075,10 +6063,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6104,10 +6092,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6133,10 +6121,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6162,10 +6150,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6191,10 +6179,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6220,10 +6208,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6249,10 +6237,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6278,10 +6266,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6307,10 +6295,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6336,10 +6324,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6365,10 +6353,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6394,10 +6382,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6423,10 +6411,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6452,10 +6440,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6481,10 +6469,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6510,10 +6498,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6539,10 +6527,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6568,10 +6556,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6597,10 +6585,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6626,10 +6614,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6655,10 +6643,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6684,10 +6672,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6713,10 +6701,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6742,10 +6730,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6771,10 +6759,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6800,10 +6788,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6829,10 +6817,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6858,10 +6846,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6887,10 +6875,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6916,10 +6904,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6945,10 +6933,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6974,10 +6962,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7003,10 +6991,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7061,10 +7049,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7090,10 +7078,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7119,10 +7107,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7148,10 +7136,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7177,10 +7165,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>196</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7206,10 +7194,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7235,10 +7223,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7264,10 +7252,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7293,10 +7281,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7322,10 +7310,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7351,10 +7339,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7380,10 +7368,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7409,10 +7397,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7438,10 +7426,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7467,10 +7455,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7496,10 +7484,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7525,10 +7513,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7554,10 +7542,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7583,10 +7571,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7612,10 +7600,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7641,10 +7629,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7670,10 +7658,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7699,10 +7687,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7728,10 +7716,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -7757,10 +7745,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7786,10 +7774,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7815,10 +7803,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7844,10 +7832,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7873,10 +7861,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7902,10 +7890,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7931,10 +7919,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7960,10 +7948,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7989,10 +7977,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8018,10 +8006,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8047,10 +8035,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8076,10 +8064,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8105,10 +8093,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8134,10 +8122,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8163,10 +8151,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8192,10 +8180,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8221,10 +8209,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8250,10 +8238,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8279,10 +8267,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8308,10 +8296,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8337,10 +8325,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8366,10 +8354,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8395,10 +8383,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8424,10 +8412,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8453,10 +8441,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8482,10 +8470,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8511,10 +8499,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8540,10 +8528,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8569,10 +8557,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8598,10 +8586,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8627,10 +8615,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F231" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8656,10 +8644,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8685,10 +8673,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8714,10 +8702,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8743,10 +8731,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8772,10 +8760,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8801,10 +8789,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8830,10 +8818,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8859,10 +8847,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8888,10 +8876,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8917,10 +8905,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8946,10 +8934,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8975,10 +8963,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9004,10 +8992,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9033,10 +9021,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9062,10 +9050,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9091,10 +9079,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9120,10 +9108,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9149,10 +9137,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9178,10 +9166,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9207,10 +9195,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9236,10 +9224,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9265,10 +9253,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9294,10 +9282,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9323,10 +9311,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9352,10 +9340,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9381,10 +9369,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9410,10 +9398,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9439,10 +9427,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9468,10 +9456,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9497,10 +9485,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9526,10 +9514,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9555,10 +9543,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9584,10 +9572,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9613,10 +9601,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9642,10 +9630,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9671,10 +9659,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
